--- a/devis/Devis_OpcaDefi_Forfait_florian_12_2016.xlsx
+++ b/devis/Devis_OpcaDefi_Forfait_florian_12_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\CloudDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\CloudDocuments\devis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -756,11 +756,11 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A30" sqref="A30:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,8 +1097,8 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="G1" s="51" t="s">
         <v>51</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">TODAY()</f>
-        <v>42728</v>
+        <v>42733</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="9" t="s">
@@ -1319,7 +1319,7 @@
       <c r="D25" s="50">
         <v>42727</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="28"/>
       <c r="G25" s="33">
         <f>SUM(E25:E29)*B15</f>
@@ -1333,7 +1333,7 @@
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="48"/>
-      <c r="E26" s="59"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
     </row>
@@ -1344,7 +1344,7 @@
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="48"/>
-      <c r="E27" s="59">
+      <c r="E27" s="58">
         <v>3</v>
       </c>
       <c r="F27" s="29"/>
@@ -1357,7 +1357,7 @@
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="48"/>
-      <c r="E28" s="59">
+      <c r="E28" s="58">
         <v>1</v>
       </c>
       <c r="F28" s="29"/>
@@ -1370,7 +1370,7 @@
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="49"/>
-      <c r="E29" s="60">
+      <c r="E29" s="59">
         <v>1</v>
       </c>
       <c r="F29" s="29"/>
@@ -1385,7 +1385,7 @@
       <c r="D30" s="50">
         <v>42734</v>
       </c>
-      <c r="E30" s="59"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="28"/>
       <c r="G30" s="34">
         <f>SUM(E30:E35)*B15</f>
@@ -1399,7 +1399,7 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="48"/>
-      <c r="E31" s="59">
+      <c r="E31" s="58">
         <v>1</v>
       </c>
       <c r="F31" s="29"/>
@@ -1412,7 +1412,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="48"/>
-      <c r="E32" s="59">
+      <c r="E32" s="58">
         <v>1</v>
       </c>
       <c r="F32" s="29"/>
@@ -1425,7 +1425,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="48"/>
-      <c r="E33" s="59">
+      <c r="E33" s="58">
         <v>1</v>
       </c>
       <c r="F33" s="29"/>
@@ -1438,7 +1438,7 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="48"/>
-      <c r="E34" s="59">
+      <c r="E34" s="58">
         <v>1</v>
       </c>
       <c r="F34" s="29"/>
@@ -1451,7 +1451,7 @@
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
       <c r="D35" s="49"/>
-      <c r="E35" s="60">
+      <c r="E35" s="59">
         <v>1</v>
       </c>
       <c r="F35" s="31"/>
